--- a/附件五(Presto-HBase-Connector性能对比).xlsx
+++ b/附件五(Presto-HBase-Connector性能对比).xlsx
@@ -57,142 +57,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社区connector（harbby）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(concat(col_16,col_15,col_1,col_13,col_12,col_18)) from hbase.db_moredatatest.multifamily_9r;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 没有条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_15,col_1,col_13,col_12,col_18)) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 1个条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_15,col_1,col_13,col_12,col_18)) from hbase.db_moredatatest.multifamily_9rw where col_50='str_9204'  and col_28='str_4824';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 2个条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_23,col_15,col_22,col_1,col_14,col_13,col_2,col_12,col_19,col_18,col_25)) from hbase.db_moredatatest.multifamily_9r;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 每个列族2个字段 没有条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_23,col_30,col_15,col_22,col_29,col_1,col_14,col_21,col_13,col_2,col_20,col_12,col_19,col_26,col_18,col_25,col_32)) from hbase.db_moredatatest.multifamily_9r;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 每个列族3个字段 没有条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_23,col_15,col_22,col_1,col_14,col_13,col_2,col_12,col_19,col_18,col_25)) from chbase.db_moredatatest.multifamily_90cq_7cf_500w where col_50='str_9204';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 每个列族2个字段 1个条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_23,col_15,col_22,col_1,col_14,col_13,col_2,col_12,col_19,col_18,col_25)) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204' and col_28='str_4824';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询6个列族 每个列族2个字段 2个条件过滤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_15,col_1)) from hbase.db_moredatatest.multifamily_9r;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询3个列族</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_15,col_1)) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询3个列族 1个查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(concat(col_16,col_15,col_1)) from chbase.db_moredatatest.multifamily_90cq_7cf_500w where col_50='str_9204' and col_28='str_4824';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询3个列族 2个查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(distinct_id) from hbase.db_moredatatest.multifamily_9r;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询1个列族 没有查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(distinct_id) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询1个列族 1个查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(distinct_id) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204' and col_28='str_4824';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询1个列族 2个查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(*) from hbase.db_moredatatest.multifamily_9r;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全表scan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(*) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全表scan 带1个查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(*) from hbase.db_moredatatest.multifamily_9r where col_50='str_9204' and col_28='str_4824';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全表scan 带2个查询条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select col_16,col_15,col_1 from hbase.db_moredatatest.multifamily_9r order by 1 limit 11;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能点对比：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +182,78 @@
   </si>
   <si>
     <t>节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from hbase.db_test.t_test_event where col_50='str_9204';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from hbase.db_test.t_test_event where col_50='str_9204' and col_28='str_4824';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col_16,col_15,col_1 from hbase.db_test.t_test_event order by 1 limit 11;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from hbase.db_test.t_test_event;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(distinct_id) from hbase.db_test.t_test_event where col_50='str_9204' and col_28='str_4824';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(distinct_id) from hbase.db_test.t_test_event where col_50='str_9204';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(distinct_id) from hbase.db_test.t_test_event;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_15,col_1)) from hbase.db_test.t_test_event where col_50='str_9204' and col_28='str_4824';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_15,col_1)) from hbase.db_test.t_test_event where col_50='str_9204';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_15,col_1)) from hbase.db_test.t_test_event;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_23,col_15,col_22,col_1,col_14,col_13,col_2,col_12,col_19,col_18,col_25)) from hbase.db_test.t_test_event where col_50='str_9204' and col_28='str_4824';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_23,col_15,col_22,col_1,col_14,col_13,col_2,col_12,col_19,col_18,col_25)) from hbase.db_test.t_test_event where col_50='str_9204';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_23,col_30,col_15,col_22,col_29,col_1,col_14,col_21,col_13,col_2,col_20,col_12,col_19,col_26,col_18,col_25,col_32)) from hbase.db_test.t_test_event;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_23,col_15,col_22,col_1,col_14,col_13,col_2,col_12,col_19,col_18,col_25)) from hbase.db_test.t_test_event;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_15,col_1,col_13,col_12,col_18)) from hbase.db_test.t_test_event where col_50='str_9204'  and col_28='str_4824';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_15,col_1,col_13,col_12,col_18)) from hbase.db_test.t_test_event where col_50='str_9204';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(concat(col_16,col_15,col_1,col_13,col_12,col_18)) from hbase.db_test.t_test_event;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -367,19 +367,7 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +380,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -712,109 +712,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>58</v>
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,338 +842,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="D18" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="9"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D26" s="9"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="9"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="9"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="9"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="9"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="9"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="9"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="4:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="9"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="4:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="9"/>
+      <c r="D34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
